--- a/Especial_Uniandes_2023/1. CV/data/student-evaluations.xlsx
+++ b/Especial_Uniandes_2023/1. CV/data/student-evaluations.xlsx
@@ -3,24 +3,35 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB4F285-5C0A-467B-913C-92C2BDA4D470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCB56D9-77BE-4658-B26A-A9D55E84E305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>what</t>
   </si>
@@ -43,9 +54,6 @@
     <t>2017-2019</t>
   </si>
   <si>
-    <t>Los valores corresponden al porcentaje de alumnos que calificaron cada logro como alto \newline (las opciones eran bajo, medio, alto)</t>
-  </si>
-  <si>
     <t>Taller Proyecto de Grado I</t>
   </si>
   <si>
@@ -55,93 +63,6 @@
     <t>Métodos cuantitativos II (Maestría en Psicología)</t>
   </si>
   <si>
-    <t>Ser capaz de leer sobre la materia de esta área de forma más crítica: 90,9\%</t>
-  </si>
-  <si>
-    <t>Corregir ideas y conceptos inexactos sobre este campo de la psicología: 90,9\%</t>
-  </si>
-  <si>
-    <t>Interés por la investigación sobre el área objeto de estudio: 90.9\%</t>
-  </si>
-  <si>
-    <t>Nuevos conceptos e investigaciones:  81.8\%</t>
-  </si>
-  <si>
-    <t>Aplicación de conocimientos en el contexto psicológico: 81.8\%</t>
-  </si>
-  <si>
-    <t>Ser capaz de leer sobre la temática de esta área de forma más crítica: 79.5\%</t>
-  </si>
-  <si>
-    <t>Corregir ideas y conceptos inexactos sobre este campo de la psicología: 70,5\%</t>
-  </si>
-  <si>
-    <t>Interés por la investigación sobre el área objeto de estudio: 77.3\%</t>
-  </si>
-  <si>
-    <t>Nuevos conceptos e investigaciones: 72.7\%</t>
-  </si>
-  <si>
-    <t>Aplicación de los conocimientos en el contexto psicológico: 81.8\%</t>
-  </si>
-  <si>
-    <t>Relevancia de los contenidos para el objetivo del programa: 4.75</t>
-  </si>
-  <si>
-    <t>Material aportado para apoyar el desarrollo del módulo: 4.67</t>
-  </si>
-  <si>
-    <t>Recursos didácticos utilizados: 4.64</t>
-  </si>
-  <si>
-    <t>Utilidad práctica de los contenidos: 4.63</t>
-  </si>
-  <si>
-    <t>Contribución de los contenidos a la vida profesional: 4,63</t>
-  </si>
-  <si>
-    <t>Cumplimiento del programa: 4.76</t>
-  </si>
-  <si>
-    <t>Diseño de las sesiones: 4.69</t>
-  </si>
-  <si>
-    <t>Manejo conceptual claro y completo de los temas: 4.65</t>
-  </si>
-  <si>
-    <t>Claridad en sus exposiciones: 4.49</t>
-  </si>
-  <si>
-    <t>Terminología utilizada: 4.74</t>
-  </si>
-  <si>
-    <t>Uso de estrategias que desarrollan el pensamiento crítico-constructivo: 4,60</t>
-  </si>
-  <si>
-    <t>Uso de estrategias que facilitan la comprensión de conceptos: 4.61</t>
-  </si>
-  <si>
-    <t>Uso de estrategias que facilitan la aplicación de los conceptos abordados en la asignatura: 4.63</t>
-  </si>
-  <si>
-    <t>Disposición para resolver dudas: 4.71</t>
-  </si>
-  <si>
-    <t>Fomento de la participación en clase: 4.70</t>
-  </si>
-  <si>
-    <t>Volumen de lecturas adecuado y objetivo: 4.70</t>
-  </si>
-  <si>
-    <t>Fomento del interés del alumno por aprender: 4,72</t>
-  </si>
-  <si>
-    <t>Retroalimentación de las actividades realizadas (talleres, seminarios, análisis de casos): 4.57</t>
-  </si>
-  <si>
-    <t>Los valores corresponden a la puntuación media sobre 5.0</t>
-  </si>
-  <si>
     <t>\textbf{ Media Aspectos Académicos y Metodológicos: 4.69}</t>
   </si>
   <si>
@@ -149,13 +70,166 @@
   </si>
   <si>
     <t>\textbf{Media Facilitadores del Aprendizaje: 4.71}</t>
+  </si>
+  <si>
+    <t>2020-2023</t>
+  </si>
+  <si>
+    <t>\textbf{Nota media del papel como director} (sobre 5.0)\textbf{: 4.87}</t>
+  </si>
+  <si>
+    <t>Dirección trabajos de grado \textbf{(promedio 2020-2 a 2023-2)}</t>
+  </si>
+  <si>
+    <t>Los valores corresponden al porcentaje medio de estudiantes que calificaron cada aspecto como excelente \newline (las opciones son \textbf{Muy malo}, \textbf{Malo}, \textbf{Aceptable}, \textbf{Bueno} y \textbf{Excelente})</t>
+  </si>
+  <si>
+    <t>Los valores corresponden al porcentaje medio de estudiantes que calificaron cada logro como \textbf{Alto} \newline (las opciones son \textbf{Bajo}, \textbf{medio} y \textbf{Alto})</t>
+  </si>
+  <si>
+    <t>Los valores corresponden a la puntuación media \textbf{sobre 5.0}</t>
+  </si>
+  <si>
+    <t>Guía a la investigación: \textbf{100\%}</t>
+  </si>
+  <si>
+    <t>Compromiso con la investigación: \textbf{91.1\%}</t>
+  </si>
+  <si>
+    <t>Conocimiento temático: \textbf{91.1\%}</t>
+  </si>
+  <si>
+    <t>Conocimiento metodológico: \textbf{89.3\%}</t>
+  </si>
+  <si>
+    <t>Orientación para la búsqueda de información: \textbf{91.7\%}</t>
+  </si>
+  <si>
+    <t>Coherencia en el proceso: \textbf{89.9\%}</t>
+  </si>
+  <si>
+    <t>Manejo de normas APA: \textbf{86.4\%}</t>
+  </si>
+  <si>
+    <t>Relaciones interpersonales: \textbf{93.5\%}</t>
+  </si>
+  <si>
+    <t>Habilidad en solución de problemas: \textbf{85.8\%}</t>
+  </si>
+  <si>
+    <t>Puntualidad en los encuentros: \textbf{86.9\%}</t>
+  </si>
+  <si>
+    <t>Puntualidad en la retroalimentación de los avances del proyecto: \textbf{84.5\%}</t>
+  </si>
+  <si>
+    <t>Claridad en la retroalimentación: \textbf{91.7\%}</t>
+  </si>
+  <si>
+    <t>Diligenciamiento del formato de control de cada una de las asesorías: \textbf{82.1\%}</t>
+  </si>
+  <si>
+    <t>Asignación oportuna de notas: \textbf{86.3\%}</t>
+  </si>
+  <si>
+    <t>Conocimiento de las fechas y los procesos administrativos relacionados con la investigación: \textbf{81.5\%}</t>
+  </si>
+  <si>
+    <t>Uso del aula virtual del Centro de Investigaciones como herramienta de apoyo: \textbf{76.9\%}</t>
+  </si>
+  <si>
+    <t>Ser capaz de leer sobre la materia de esta área de forma más crítica: \textbf{90.9\%}</t>
+  </si>
+  <si>
+    <t>Corregir ideas y conceptos inexactos sobre este campo de la psicología: \textbf{90.9\%}</t>
+  </si>
+  <si>
+    <t>Interés por la investigación sobre el área objeto de estudio: \textbf{90.9\%}</t>
+  </si>
+  <si>
+    <t>Nuevos conceptos e investigaciones: \textbf{ 81.8\%}</t>
+  </si>
+  <si>
+    <t>Aplicación de conocimientos en el contexto psicológico: \textbf{81.8\%}</t>
+  </si>
+  <si>
+    <t>Ser capaz de leer sobre la temática de esta área de forma más crítica: \textbf{79.5\%}</t>
+  </si>
+  <si>
+    <t>Corregir ideas y conceptos inexactos sobre este campo de la psicología: \textbf{70.5\%}</t>
+  </si>
+  <si>
+    <t>Interés por la investigación sobre el área objeto de estudio: \textbf{77.3\%}</t>
+  </si>
+  <si>
+    <t>Nuevos conceptos e investigaciones: \textbf{72.7\%}</t>
+  </si>
+  <si>
+    <t>Aplicación de los conocimientos en el contexto psicológico: \textbf{81.8\%}</t>
+  </si>
+  <si>
+    <t>Relevancia de los contenidos para el objetivo del programa: \textbf{4.75}</t>
+  </si>
+  <si>
+    <t>Material aportado para apoyar el desarrollo del módulo: \textbf{4.67}</t>
+  </si>
+  <si>
+    <t>Recursos didácticos utilizados: \textbf{4.64}</t>
+  </si>
+  <si>
+    <t>Utilidad práctica de los contenidos: \textbf{4.63}</t>
+  </si>
+  <si>
+    <t>Contribución de los contenidos a la vida profesional: \textbf{4.63}</t>
+  </si>
+  <si>
+    <t>Cumplimiento del programa: \textbf{4.76}</t>
+  </si>
+  <si>
+    <t>Diseño de las sesiones: \textbf{4.69}</t>
+  </si>
+  <si>
+    <t>Manejo conceptual claro y completo de los temas: \textbf{4.65}</t>
+  </si>
+  <si>
+    <t>Claridad en sus exposiciones: \textbf{4.49}</t>
+  </si>
+  <si>
+    <t>Terminología utilizada: \textbf{4.74}</t>
+  </si>
+  <si>
+    <t>Uso de estrategias que desarrollan el pensamiento crítico-constructivo: \textbf{4.60}</t>
+  </si>
+  <si>
+    <t>Uso de estrategias que facilitan la comprensión de conceptos: \textbf{4.61}</t>
+  </si>
+  <si>
+    <t>Uso de estrategias que facilitan la aplicación de los conceptos abordados en la asignatura: \textbf{4.63}</t>
+  </si>
+  <si>
+    <t>Disposición para resolver dudas: \textbf{4.71}</t>
+  </si>
+  <si>
+    <t>Fomento de la participación en clase: \textbf{4.70}</t>
+  </si>
+  <si>
+    <t>Volumen de lecturas adecuado y objetivo: \textbf{4.70}</t>
+  </si>
+  <si>
+    <t>Fomento del interés del alumno por aprender: \textbf{4.72}</t>
+  </si>
+  <si>
+    <t>Retroalimentación de las actividades realizadas (talleres, seminarios, análisis de casos): \textbf{4.57}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +366,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -638,16 +718,31 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -970,23 +1065,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="94.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="91.140625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -998,234 +1093,396 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>39</v>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="E3" t="s">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="E4" t="s">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="E5" t="s">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="E6" t="s">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="E7" t="s">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="E8" t="s">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="E9" t="s">
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2018</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="E20" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="E21" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="E22" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="E23" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>2015</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="E18" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="E25" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="E20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="E21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="E22" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="E26" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23">
-        <v>2018</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="E27" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="E28" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E29" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="E30" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="E31" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="E32" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="E33" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="E34" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="E35" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="E36" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="E37" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="E38" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="E39" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="E40" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="E41" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="E42" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="E43" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="E44" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="E45" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="E24" s="1" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="E46" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="E47" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="E48" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="E49" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="E25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="E26" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="E27" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28">
-        <v>2015</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="E29" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="E30" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="E31" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="E32" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Especial_Uniandes_2023/1. CV/data/student-evaluations.xlsx
+++ b/Especial_Uniandes_2023/1. CV/data/student-evaluations.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCB56D9-77BE-4658-B26A-A9D55E84E305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2408F3F8-D717-4A66-9B49-8CAA7F0F979D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>2017-2019</t>
   </si>
   <si>
-    <t>Taller Proyecto de Grado I</t>
-  </si>
-  <si>
     <t>Fuentes y estilos de documentación en psicología</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>Retroalimentación de las actividades realizadas (talleres, seminarios, análisis de casos): \textbf{4.57}</t>
+  </si>
+  <si>
+    <t>Trabajo Proyecto de Grado I</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,19 +1099,19 @@
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1120,7 +1120,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1138,7 +1138,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1147,7 +1147,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1156,7 +1156,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1165,7 +1165,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1174,7 +1174,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1183,7 +1183,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1192,7 +1192,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1201,7 +1201,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1210,7 +1210,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1219,7 +1219,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1228,16 +1228,16 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1246,7 +1246,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1255,226 +1255,226 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>2018</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="E20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="E21" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="E22" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="E23" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24">
         <v>2015</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="E25" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="E26" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="E27" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="E28" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="E30" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="E31" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="E32" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="E33" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="E34" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="E35" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="E36" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="E37" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="E38" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="E39" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="E40" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="E41" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="E42" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="E43" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="E44" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="E45" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="E46" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="E47" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="E48" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="E49" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
